--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2047338.312726117</v>
+        <v>-2049825.101349239</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5481525.451315966</v>
+        <v>5481525.451315945</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.17943925689102</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>293.1477692908238</v>
       </c>
       <c r="H2" t="n">
-        <v>227.9129747282389</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>249.4798616428776</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609198</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>43.60620160013919</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>34.05110737787452</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>89.95825846367163</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>129.051034530952</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.72683757586862</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>86.11283245544999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>97.6352909288865</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>299.7866465391472</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>80.74987568070257</v>
+        <v>88.18421182873905</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>368.3218688960627</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9951147811641</v>
       </c>
       <c r="H11" t="n">
-        <v>305.6006107914877</v>
+        <v>305.6006107914876</v>
       </c>
       <c r="I11" t="n">
-        <v>82.95876411899262</v>
+        <v>82.95876411899259</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>133.6476165358833</v>
       </c>
       <c r="T11" t="n">
-        <v>208.6167310461737</v>
+        <v>170.0625542005275</v>
       </c>
       <c r="U11" t="n">
         <v>251.0810430891188</v>
@@ -1467,7 +1467,7 @@
         <v>95.14353778861224</v>
       </c>
       <c r="I12" t="n">
-        <v>28.46499542367159</v>
+        <v>28.46499542367157</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.5072936689788</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>149.0358579227903</v>
       </c>
       <c r="I13" t="n">
         <v>110.8319998290785</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>198.160002884853</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.6062051186852</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2381010461556</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>138.8650444281529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>85.2496114384908</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.4946630364818</v>
       </c>
       <c r="H14" t="n">
-        <v>300.4753593612593</v>
+        <v>300.4753593612592</v>
       </c>
       <c r="I14" t="n">
-        <v>63.66509823212556</v>
+        <v>63.66509823212496</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>122.2435724039339</v>
+        <v>122.2435724039335</v>
       </c>
       <c r="T14" t="n">
         <v>206.4260035338266</v>
@@ -1701,10 +1701,10 @@
         <v>135.3060176909765</v>
       </c>
       <c r="H15" t="n">
-        <v>92.55748880728765</v>
+        <v>92.55748880728757</v>
       </c>
       <c r="I15" t="n">
-        <v>19.24588347844089</v>
+        <v>19.24588347844059</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>133.8375120472078</v>
+        <v>133.8375120472077</v>
       </c>
       <c r="T15" t="n">
         <v>191.9521759975269</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.0399784257908</v>
       </c>
       <c r="I16" t="n">
-        <v>104.0811108964874</v>
+        <v>104.0811108964871</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>100.4878065838823</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>194.2478341775441</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.6470401252396</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2258563866648</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.3395799558763</v>
+        <v>43.74325464432889</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>411.4946630364818</v>
       </c>
       <c r="H17" t="n">
-        <v>300.4753593612593</v>
+        <v>300.4753593612596</v>
       </c>
       <c r="I17" t="n">
-        <v>63.6650982321255</v>
+        <v>63.66509823212638</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>122.2435724039338</v>
+        <v>122.2435724039344</v>
       </c>
       <c r="T17" t="n">
-        <v>206.4260035338266</v>
+        <v>206.4260035338268</v>
       </c>
       <c r="U17" t="n">
         <v>251.0410069495442</v>
@@ -1938,10 +1938,10 @@
         <v>135.3060176909765</v>
       </c>
       <c r="H18" t="n">
-        <v>92.55748880728764</v>
+        <v>92.55748880728777</v>
       </c>
       <c r="I18" t="n">
-        <v>19.24588347844085</v>
+        <v>19.24588347844129</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>133.8375120472078</v>
+        <v>133.837512047208</v>
       </c>
       <c r="T18" t="n">
-        <v>191.9521759975269</v>
+        <v>191.952175997527</v>
       </c>
       <c r="U18" t="n">
         <v>225.8073360630647</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>7.151799514457298</v>
       </c>
       <c r="I19" t="n">
-        <v>104.0811108964873</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>220.6470401252397</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2258563866648</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>120.5002578328756</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,10 +2096,10 @@
         <v>411.4946630364818</v>
       </c>
       <c r="H20" t="n">
-        <v>300.4753593612593</v>
+        <v>300.4753593612596</v>
       </c>
       <c r="I20" t="n">
-        <v>63.6650982321255</v>
+        <v>63.66509823212638</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>122.2435724039338</v>
+        <v>122.2435724039344</v>
       </c>
       <c r="T20" t="n">
-        <v>206.4260035338266</v>
+        <v>206.4260035338268</v>
       </c>
       <c r="U20" t="n">
         <v>251.0410069495442</v>
@@ -2175,10 +2175,10 @@
         <v>135.3060176909765</v>
       </c>
       <c r="H21" t="n">
-        <v>92.55748880728764</v>
+        <v>92.55748880728777</v>
       </c>
       <c r="I21" t="n">
-        <v>19.24588347844085</v>
+        <v>19.24588347844129</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>133.8375120472078</v>
+        <v>133.837512047208</v>
       </c>
       <c r="T21" t="n">
-        <v>191.9521759975269</v>
+        <v>191.952175997527</v>
       </c>
       <c r="U21" t="n">
         <v>225.8073360630647</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2828082449809</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>100.4878065838831</v>
       </c>
       <c r="S22" t="n">
-        <v>194.2478341775442</v>
+        <v>194.2478341775444</v>
       </c>
       <c r="T22" t="n">
         <v>220.6470401252397</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>128.5815357216084</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>99.12982172358771</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2333,10 @@
         <v>411.4946630364818</v>
       </c>
       <c r="H23" t="n">
-        <v>300.4753593612593</v>
+        <v>300.4753593612596</v>
       </c>
       <c r="I23" t="n">
-        <v>63.6650982321255</v>
+        <v>63.66509823212638</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>122.2435724039338</v>
+        <v>122.2435724039344</v>
       </c>
       <c r="T23" t="n">
-        <v>206.4260035338266</v>
+        <v>206.4260035338268</v>
       </c>
       <c r="U23" t="n">
         <v>251.0410069495442</v>
@@ -2412,10 +2412,10 @@
         <v>135.3060176909765</v>
       </c>
       <c r="H24" t="n">
-        <v>92.55748880728764</v>
+        <v>92.55748880728777</v>
       </c>
       <c r="I24" t="n">
-        <v>19.24588347844085</v>
+        <v>19.24588347844129</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>133.8375120472078</v>
+        <v>133.837512047208</v>
       </c>
       <c r="T24" t="n">
-        <v>191.9521759975269</v>
+        <v>191.952175997527</v>
       </c>
       <c r="U24" t="n">
         <v>225.8073360630647</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.2478341775444</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>105.5595266541169</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>214.916538606471</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2764,7 +2764,7 @@
         <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575772</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
@@ -2779,7 +2779,7 @@
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335029</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2998,7 +2998,7 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128497</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
         <v>172.5738126575766</v>
@@ -3013,7 +3013,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704453</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
         <v>172.5738126575766</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1080.932265196336</v>
+        <v>1411.420275950246</v>
       </c>
       <c r="C2" t="n">
-        <v>1080.932265196336</v>
+        <v>1042.457759009834</v>
       </c>
       <c r="D2" t="n">
-        <v>1080.932265196336</v>
+        <v>684.192060403084</v>
       </c>
       <c r="E2" t="n">
-        <v>695.1440125980921</v>
+        <v>684.192060403084</v>
       </c>
       <c r="F2" t="n">
-        <v>284.1581078084846</v>
+        <v>677.2465596538806</v>
       </c>
       <c r="G2" t="n">
-        <v>284.1581078084846</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2171.485874275448</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>2171.485874275448</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>1798.020116014368</v>
       </c>
       <c r="Y2" t="n">
-        <v>1112.426648284105</v>
+        <v>1798.020116014368</v>
       </c>
     </row>
     <row r="3">
@@ -4398,25 +4398,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.98965010333333</v>
+        <v>224.6669506791652</v>
       </c>
       <c r="C4" t="n">
-        <v>97.98965010333333</v>
+        <v>224.6669506791652</v>
       </c>
       <c r="D4" t="n">
-        <v>97.98965010333333</v>
+        <v>224.6669506791652</v>
       </c>
       <c r="E4" t="n">
-        <v>97.98965010333333</v>
+        <v>224.6669506791652</v>
       </c>
       <c r="F4" t="n">
-        <v>97.98965010333333</v>
+        <v>224.6669506791652</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791652</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791652</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>88.33803977781346</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,7 +4495,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
         <v>529.6040388502502</v>
@@ -4504,34 +4504,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T4" t="n">
-        <v>352.6741383092202</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="U4" t="n">
-        <v>352.6741383092202</v>
+        <v>224.6669506791652</v>
       </c>
       <c r="V4" t="n">
-        <v>97.98965010333333</v>
+        <v>224.6669506791652</v>
       </c>
       <c r="W4" t="n">
-        <v>97.98965010333333</v>
+        <v>224.6669506791652</v>
       </c>
       <c r="X4" t="n">
-        <v>97.98965010333333</v>
+        <v>224.6669506791652</v>
       </c>
       <c r="Y4" t="n">
-        <v>97.98965010333333</v>
+        <v>224.6669506791652</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1050.379914381371</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,10 +4583,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2335.588333528591</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2335.588333528591</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2335.588333528591</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1982.819678258477</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.819678258477</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1592.680346282665</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864.6405432696254</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>152.5644878091387</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1540.921096014692</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1167.455337753612</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>864.6405432696254</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.4444960005476</v>
+        <v>279.346854164887</v>
       </c>
       <c r="C10" t="n">
-        <v>304.5083130726407</v>
+        <v>279.346854164887</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4996,16 +4996,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005476</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.4444960005476</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2390.170575168825</v>
+        <v>2429.114188144228</v>
       </c>
       <c r="C11" t="n">
-        <v>2021.208058228413</v>
+        <v>2060.151671203816</v>
       </c>
       <c r="D11" t="n">
-        <v>1662.942359621663</v>
+        <v>1701.885972597066</v>
       </c>
       <c r="E11" t="n">
-        <v>1277.154107023419</v>
+        <v>1316.097719998821</v>
       </c>
       <c r="F11" t="n">
-        <v>905.1118152092139</v>
+        <v>905.1118152092138</v>
       </c>
       <c r="G11" t="n">
-        <v>488.9551336120784</v>
+        <v>488.9551336120783</v>
       </c>
       <c r="H11" t="n">
         <v>180.267647964111</v>
       </c>
       <c r="I11" t="n">
-        <v>96.47091653078513</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="J11" t="n">
-        <v>362.5641616369082</v>
+        <v>362.564161636908</v>
       </c>
       <c r="K11" t="n">
-        <v>882.1137627407184</v>
+        <v>882.1137627407185</v>
       </c>
       <c r="L11" t="n">
-        <v>1578.937612170579</v>
+        <v>1578.93761217058</v>
       </c>
       <c r="M11" t="n">
-        <v>2370.894953715988</v>
+        <v>2370.894953715989</v>
       </c>
       <c r="N11" t="n">
-        <v>3161.034995467698</v>
+        <v>3161.034995467699</v>
       </c>
       <c r="O11" t="n">
-        <v>3861.954193329502</v>
+        <v>3861.954193329504</v>
       </c>
       <c r="P11" t="n">
-        <v>4422.498129458252</v>
+        <v>4422.498129458254</v>
       </c>
       <c r="Q11" t="n">
-        <v>4766.221521303823</v>
+        <v>4766.221521303824</v>
       </c>
       <c r="R11" t="n">
-        <v>4823.545826539256</v>
+        <v>4823.545826539258</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.548234078768</v>
+        <v>4688.54823407877</v>
       </c>
       <c r="T11" t="n">
-        <v>4477.824263325057</v>
+        <v>4516.76787630046</v>
       </c>
       <c r="U11" t="n">
-        <v>4224.207048083524</v>
+        <v>4263.150661058926</v>
       </c>
       <c r="V11" t="n">
-        <v>3893.144160739953</v>
+        <v>3932.087773715356</v>
       </c>
       <c r="W11" t="n">
-        <v>3540.375505469839</v>
+        <v>3579.319118445241</v>
       </c>
       <c r="X11" t="n">
-        <v>3166.909747208759</v>
+        <v>3205.853360184161</v>
       </c>
       <c r="Y11" t="n">
-        <v>2776.770415232947</v>
+        <v>2815.71402820835</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.2234371607564</v>
       </c>
       <c r="I12" t="n">
-        <v>96.47091653078513</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="J12" t="n">
-        <v>136.4307257247612</v>
+        <v>261.260850711766</v>
       </c>
       <c r="K12" t="n">
-        <v>282.8832290669559</v>
+        <v>669.5339386964137</v>
       </c>
       <c r="L12" t="n">
-        <v>526.1292343271527</v>
+        <v>1224.435163849133</v>
       </c>
       <c r="M12" t="n">
-        <v>829.3427174652123</v>
+        <v>1527.648646987193</v>
       </c>
       <c r="N12" t="n">
-        <v>1629.538954777924</v>
+        <v>1853.295933699786</v>
       </c>
       <c r="O12" t="n">
-        <v>1905.222806559755</v>
+        <v>2128.979785481617</v>
       </c>
       <c r="P12" t="n">
-        <v>2422.428477042635</v>
+        <v>2330.90731501096</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.947839376528</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376.6116170338733</v>
+        <v>993.0956575011074</v>
       </c>
       <c r="C13" t="n">
-        <v>376.6116170338733</v>
+        <v>824.1594745732006</v>
       </c>
       <c r="D13" t="n">
-        <v>376.6116170338733</v>
+        <v>674.0428351608648</v>
       </c>
       <c r="E13" t="n">
-        <v>376.6116170338733</v>
+        <v>674.0428351608648</v>
       </c>
       <c r="F13" t="n">
-        <v>376.6116170338733</v>
+        <v>527.1528876629544</v>
       </c>
       <c r="G13" t="n">
-        <v>208.4224315096523</v>
+        <v>358.9637021387334</v>
       </c>
       <c r="H13" t="n">
         <v>208.4224315096523</v>
       </c>
       <c r="I13" t="n">
-        <v>96.47091653078513</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="J13" t="n">
         <v>107.8929406790514</v>
       </c>
       <c r="K13" t="n">
-        <v>256.4996717754148</v>
+        <v>256.4996717754149</v>
       </c>
       <c r="L13" t="n">
-        <v>502.1915586749283</v>
+        <v>502.1915586749284</v>
       </c>
       <c r="M13" t="n">
-        <v>771.6283279604802</v>
+        <v>771.6283279604804</v>
       </c>
       <c r="N13" t="n">
-        <v>1040.093109515065</v>
+        <v>1040.093109515066</v>
       </c>
       <c r="O13" t="n">
-        <v>1272.047492050277</v>
+        <v>1272.047492050278</v>
       </c>
       <c r="P13" t="n">
         <v>1447.003855438097</v>
       </c>
       <c r="Q13" t="n">
-        <v>1484.69949259112</v>
+        <v>1484.699492591121</v>
       </c>
       <c r="R13" t="n">
-        <v>1484.69949259112</v>
+        <v>1484.699492591121</v>
       </c>
       <c r="S13" t="n">
-        <v>1284.537873515511</v>
+        <v>1484.699492591121</v>
       </c>
       <c r="T13" t="n">
-        <v>1060.693221880476</v>
+        <v>1260.854840956085</v>
       </c>
       <c r="U13" t="n">
-        <v>771.5638268843591</v>
+        <v>1260.854840956085</v>
       </c>
       <c r="V13" t="n">
-        <v>516.8793386784722</v>
+        <v>1260.854840956085</v>
       </c>
       <c r="W13" t="n">
-        <v>516.8793386784722</v>
+        <v>1260.854840956085</v>
       </c>
       <c r="X13" t="n">
-        <v>376.6116170338733</v>
+        <v>1260.854840956085</v>
       </c>
       <c r="Y13" t="n">
-        <v>376.6116170338733</v>
+        <v>1174.744122331347</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2403.943108283846</v>
+        <v>2403.943108283849</v>
       </c>
       <c r="C14" t="n">
-        <v>2034.980591343434</v>
+        <v>2034.980591343437</v>
       </c>
       <c r="D14" t="n">
-        <v>1676.714892736684</v>
+        <v>1676.714892736687</v>
       </c>
       <c r="E14" t="n">
-        <v>1290.92664013844</v>
+        <v>1290.926640138443</v>
       </c>
       <c r="F14" t="n">
-        <v>879.940735348832</v>
+        <v>879.9407353488352</v>
       </c>
       <c r="G14" t="n">
-        <v>464.2895605645069</v>
+        <v>464.2895605645101</v>
       </c>
       <c r="H14" t="n">
-        <v>160.7790965632352</v>
+        <v>160.7790965632346</v>
       </c>
       <c r="I14" t="n">
-        <v>96.47091653078513</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="J14" t="n">
-        <v>404.614625739491</v>
+        <v>237.2089767191394</v>
       </c>
       <c r="K14" t="n">
-        <v>987.1869720747648</v>
+        <v>819.7813230544152</v>
       </c>
       <c r="L14" t="n">
-        <v>1762.196109816599</v>
+        <v>1594.790460796252</v>
       </c>
       <c r="M14" t="n">
-        <v>2641.149649301331</v>
+        <v>2473.744000280987</v>
       </c>
       <c r="N14" t="n">
-        <v>3519.693578426748</v>
+        <v>3352.287929406406</v>
       </c>
       <c r="O14" t="n">
-        <v>4299.915216613355</v>
+        <v>4136.684411276097</v>
       </c>
       <c r="P14" t="n">
-        <v>4613.124362237843</v>
+        <v>4613.124362237842</v>
       </c>
       <c r="Q14" t="n">
-        <v>4800.158640090241</v>
+        <v>4800.158640090242</v>
       </c>
       <c r="R14" t="n">
-        <v>4823.545826539256</v>
+        <v>4823.545826539258</v>
       </c>
       <c r="S14" t="n">
-        <v>4700.067470575686</v>
+        <v>4700.067470575689</v>
       </c>
       <c r="T14" t="n">
-        <v>4491.556355895053</v>
+        <v>4491.556355895056</v>
       </c>
       <c r="U14" t="n">
-        <v>4237.979581198544</v>
+        <v>4237.979581198548</v>
       </c>
       <c r="V14" t="n">
-        <v>3906.916693854973</v>
+        <v>3906.916693854977</v>
       </c>
       <c r="W14" t="n">
-        <v>3554.148038584859</v>
+        <v>3554.148038584863</v>
       </c>
       <c r="X14" t="n">
-        <v>3180.68228032378</v>
+        <v>3180.682280323783</v>
       </c>
       <c r="Y14" t="n">
-        <v>2790.542948347968</v>
+        <v>2790.542948347971</v>
       </c>
     </row>
     <row r="15">
@@ -5331,58 +5331,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>975.2358128726481</v>
+        <v>975.2358128726477</v>
       </c>
       <c r="C15" t="n">
-        <v>800.7827835915211</v>
+        <v>800.7827835915207</v>
       </c>
       <c r="D15" t="n">
-        <v>651.8483739302699</v>
+        <v>651.8483739302694</v>
       </c>
       <c r="E15" t="n">
-        <v>492.6109189248144</v>
+        <v>492.610918924814</v>
       </c>
       <c r="F15" t="n">
-        <v>346.0763609516994</v>
+        <v>346.0763609516989</v>
       </c>
       <c r="G15" t="n">
-        <v>209.4036158092988</v>
+        <v>209.4036158092985</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9112028726446</v>
+        <v>115.9112028726443</v>
       </c>
       <c r="I15" t="n">
-        <v>96.47091653078513</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="J15" t="n">
-        <v>161.4756940697411</v>
+        <v>161.475694069742</v>
       </c>
       <c r="K15" t="n">
-        <v>612.554622059826</v>
+        <v>612.5546220598283</v>
       </c>
       <c r="L15" t="n">
-        <v>913.3583617760941</v>
+        <v>913.3583617760981</v>
       </c>
       <c r="M15" t="n">
-        <v>1283.739006201442</v>
+        <v>1283.739006201449</v>
       </c>
       <c r="N15" t="n">
-        <v>1678.331169098473</v>
+        <v>1678.331169098482</v>
       </c>
       <c r="O15" t="n">
-        <v>2026.194754890122</v>
+        <v>2017.0861131142</v>
       </c>
       <c r="P15" t="n">
-        <v>2278.742396382871</v>
+        <v>2486.71891124136</v>
       </c>
       <c r="Q15" t="n">
-        <v>2605.621125043147</v>
+        <v>2605.621125043146</v>
       </c>
       <c r="R15" t="n">
-        <v>2605.621125043147</v>
+        <v>2605.621125043146</v>
       </c>
       <c r="S15" t="n">
-        <v>2470.431718934856</v>
+        <v>2470.431718934855</v>
       </c>
       <c r="T15" t="n">
         <v>2276.540632068667</v>
@@ -5394,7 +5394,7 @@
         <v>1813.300305591404</v>
       </c>
       <c r="W15" t="n">
-        <v>1559.062948863203</v>
+        <v>1559.062948863202</v>
       </c>
       <c r="X15" t="n">
         <v>1351.21144865767</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>351.719991192098</v>
+        <v>669.1814048531268</v>
       </c>
       <c r="C16" t="n">
-        <v>351.719991192098</v>
+        <v>500.2452219252199</v>
       </c>
       <c r="D16" t="n">
-        <v>201.6033517797622</v>
+        <v>350.1285825128841</v>
       </c>
       <c r="E16" t="n">
-        <v>201.6033517797622</v>
+        <v>350.1285825128841</v>
       </c>
       <c r="F16" t="n">
-        <v>201.6033517797622</v>
+        <v>350.1285825128841</v>
       </c>
       <c r="G16" t="n">
-        <v>201.6033517797622</v>
+        <v>350.1285825128841</v>
       </c>
       <c r="H16" t="n">
-        <v>201.6033517797622</v>
+        <v>201.6033517797621</v>
       </c>
       <c r="I16" t="n">
-        <v>96.47091653078513</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="J16" t="n">
-        <v>123.6053489609358</v>
+        <v>123.6053489609363</v>
       </c>
       <c r="K16" t="n">
-        <v>298.0323935255365</v>
+        <v>298.0323935255379</v>
       </c>
       <c r="L16" t="n">
-        <v>576.7653920416035</v>
+        <v>576.765392041606</v>
       </c>
       <c r="M16" t="n">
-        <v>881.0393808211161</v>
+        <v>881.0393808211197</v>
       </c>
       <c r="N16" t="n">
-        <v>1183.51303065511</v>
+        <v>1183.513030655115</v>
       </c>
       <c r="O16" t="n">
-        <v>1446.880107541195</v>
+        <v>1446.8801075412</v>
       </c>
       <c r="P16" t="n">
-        <v>1648.715457656825</v>
+        <v>1648.715457656832</v>
       </c>
       <c r="Q16" t="n">
-        <v>1705.02071197385</v>
+        <v>1705.020711973857</v>
       </c>
       <c r="R16" t="n">
-        <v>1705.02071197385</v>
+        <v>1603.517877040643</v>
       </c>
       <c r="S16" t="n">
-        <v>1705.02071197385</v>
+        <v>1407.307943527972</v>
       </c>
       <c r="T16" t="n">
-        <v>1705.02071197385</v>
+        <v>1184.432145421669</v>
       </c>
       <c r="U16" t="n">
-        <v>1415.903685320653</v>
+        <v>1184.432145421669</v>
       </c>
       <c r="V16" t="n">
-        <v>1161.219197114767</v>
+        <v>1184.432145421669</v>
       </c>
       <c r="W16" t="n">
-        <v>871.8020270778059</v>
+        <v>895.0149753847088</v>
       </c>
       <c r="X16" t="n">
-        <v>643.8124761797885</v>
+        <v>895.0149753847088</v>
       </c>
       <c r="Y16" t="n">
-        <v>533.3684560223377</v>
+        <v>850.8298696833665</v>
       </c>
     </row>
     <row r="17">
@@ -5492,73 +5492,73 @@
         <v>2403.943108283846</v>
       </c>
       <c r="C17" t="n">
-        <v>2034.980591343434</v>
+        <v>2034.980591343435</v>
       </c>
       <c r="D17" t="n">
-        <v>1676.714892736684</v>
+        <v>1676.714892736685</v>
       </c>
       <c r="E17" t="n">
-        <v>1290.92664013844</v>
+        <v>1290.926640138441</v>
       </c>
       <c r="F17" t="n">
-        <v>879.9407353488324</v>
+        <v>879.9407353488332</v>
       </c>
       <c r="G17" t="n">
-        <v>464.2895605645072</v>
+        <v>464.2895605645081</v>
       </c>
       <c r="H17" t="n">
-        <v>160.7790965632352</v>
+        <v>160.7790965632361</v>
       </c>
       <c r="I17" t="n">
-        <v>96.47091653078513</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="J17" t="n">
-        <v>237.2089767191382</v>
+        <v>404.6146257394893</v>
       </c>
       <c r="K17" t="n">
-        <v>498.8773646089591</v>
+        <v>987.1869720747603</v>
       </c>
       <c r="L17" t="n">
-        <v>1273.886502350794</v>
+        <v>1762.196109816591</v>
       </c>
       <c r="M17" t="n">
-        <v>2152.840041835527</v>
+        <v>2641.14964930132</v>
       </c>
       <c r="N17" t="n">
-        <v>3031.383970960944</v>
+        <v>3240.267638316122</v>
       </c>
       <c r="O17" t="n">
-        <v>3815.780452830632</v>
+        <v>4024.664120185806</v>
       </c>
       <c r="P17" t="n">
-        <v>4447.570319544888</v>
+        <v>4337.873265810291</v>
       </c>
       <c r="Q17" t="n">
-        <v>4735.099384415988</v>
+        <v>4735.099384415991</v>
       </c>
       <c r="R17" t="n">
-        <v>4823.545826539256</v>
+        <v>4823.545826539258</v>
       </c>
       <c r="S17" t="n">
-        <v>4700.067470575686</v>
+        <v>4700.067470575687</v>
       </c>
       <c r="T17" t="n">
-        <v>4491.556355895053</v>
+        <v>4491.556355895054</v>
       </c>
       <c r="U17" t="n">
-        <v>4237.979581198544</v>
+        <v>4237.979581198545</v>
       </c>
       <c r="V17" t="n">
-        <v>3906.916693854973</v>
+        <v>3906.916693854974</v>
       </c>
       <c r="W17" t="n">
-        <v>3554.148038584859</v>
+        <v>3554.14803858486</v>
       </c>
       <c r="X17" t="n">
-        <v>3180.682280323779</v>
+        <v>3180.68228032378</v>
       </c>
       <c r="Y17" t="n">
-        <v>2790.542948347967</v>
+        <v>2790.542948347968</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>975.2358128726481</v>
+        <v>975.2358128726486</v>
       </c>
       <c r="C18" t="n">
-        <v>800.7827835915211</v>
+        <v>800.7827835915216</v>
       </c>
       <c r="D18" t="n">
-        <v>651.8483739302699</v>
+        <v>651.8483739302703</v>
       </c>
       <c r="E18" t="n">
-        <v>492.6109189248143</v>
+        <v>492.6109189248149</v>
       </c>
       <c r="F18" t="n">
-        <v>346.0763609516993</v>
+        <v>346.0763609516999</v>
       </c>
       <c r="G18" t="n">
-        <v>209.4036158092987</v>
+        <v>209.4036158092994</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9112028726446</v>
+        <v>115.911202872645</v>
       </c>
       <c r="I18" t="n">
-        <v>96.47091653078513</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="J18" t="n">
-        <v>161.4756940697412</v>
+        <v>286.3058190567448</v>
       </c>
       <c r="K18" t="n">
-        <v>350.7340374173734</v>
+        <v>737.3847470468279</v>
       </c>
       <c r="L18" t="n">
-        <v>1018.669718984066</v>
+        <v>1038.188486763093</v>
       </c>
       <c r="M18" t="n">
-        <v>1389.050363409415</v>
+        <v>1408.569131188439</v>
       </c>
       <c r="N18" t="n">
-        <v>1783.642526306446</v>
+        <v>1803.161294085467</v>
       </c>
       <c r="O18" t="n">
-        <v>2122.397470322163</v>
+        <v>2141.91623810118</v>
       </c>
       <c r="P18" t="n">
-        <v>2374.945111814912</v>
+        <v>2486.718911241363</v>
       </c>
       <c r="Q18" t="n">
         <v>2605.621125043147</v>
@@ -5625,10 +5625,10 @@
         <v>2276.540632068667</v>
       </c>
       <c r="U18" t="n">
-        <v>2048.452413823147</v>
+        <v>2048.452413823148</v>
       </c>
       <c r="V18" t="n">
-        <v>1813.300305591404</v>
+        <v>1813.300305591405</v>
       </c>
       <c r="W18" t="n">
         <v>1559.062948863203</v>
@@ -5637,7 +5637,7 @@
         <v>1351.21144865767</v>
       </c>
       <c r="Y18" t="n">
-        <v>1143.451149892716</v>
+        <v>1143.451149892717</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>668.569267702398</v>
+        <v>717.5508198649245</v>
       </c>
       <c r="C19" t="n">
-        <v>499.6330847744911</v>
+        <v>548.6146369370176</v>
       </c>
       <c r="D19" t="n">
-        <v>349.5164453621554</v>
+        <v>398.4979975246819</v>
       </c>
       <c r="E19" t="n">
-        <v>201.6033517797622</v>
+        <v>250.5849039422887</v>
       </c>
       <c r="F19" t="n">
-        <v>201.6033517797622</v>
+        <v>103.6949564443784</v>
       </c>
       <c r="G19" t="n">
-        <v>201.6033517797622</v>
+        <v>103.6949564443784</v>
       </c>
       <c r="H19" t="n">
-        <v>201.6033517797622</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="I19" t="n">
-        <v>96.47091653078513</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="J19" t="n">
-        <v>123.6053489609358</v>
+        <v>123.6053489609351</v>
       </c>
       <c r="K19" t="n">
-        <v>298.0323935255366</v>
+        <v>298.0323935255348</v>
       </c>
       <c r="L19" t="n">
-        <v>576.7653920416038</v>
+        <v>576.7653920416004</v>
       </c>
       <c r="M19" t="n">
-        <v>881.0393808211165</v>
+        <v>881.0393808211115</v>
       </c>
       <c r="N19" t="n">
-        <v>1183.51303065511</v>
+        <v>1183.513030655104</v>
       </c>
       <c r="O19" t="n">
-        <v>1446.880107541195</v>
+        <v>1446.880107541187</v>
       </c>
       <c r="P19" t="n">
-        <v>1648.715457656826</v>
+        <v>1648.715457656817</v>
       </c>
       <c r="Q19" t="n">
-        <v>1705.020711973851</v>
+        <v>1705.020711973841</v>
       </c>
       <c r="R19" t="n">
-        <v>1705.020711973851</v>
+        <v>1705.020711973841</v>
       </c>
       <c r="S19" t="n">
-        <v>1705.020711973851</v>
+        <v>1705.020711973841</v>
       </c>
       <c r="T19" t="n">
-        <v>1482.144913867548</v>
+        <v>1482.144913867538</v>
       </c>
       <c r="U19" t="n">
-        <v>1482.144913867548</v>
+        <v>1193.027887214341</v>
       </c>
       <c r="V19" t="n">
-        <v>1482.144913867548</v>
+        <v>938.3433990084546</v>
       </c>
       <c r="W19" t="n">
-        <v>1192.727743830588</v>
+        <v>938.3433990084546</v>
       </c>
       <c r="X19" t="n">
-        <v>1071.010311676168</v>
+        <v>938.3433990084546</v>
       </c>
       <c r="Y19" t="n">
-        <v>850.2177325326377</v>
+        <v>717.5508198649245</v>
       </c>
     </row>
     <row r="20">
@@ -5729,73 +5729,73 @@
         <v>2403.943108283846</v>
       </c>
       <c r="C20" t="n">
-        <v>2034.980591343434</v>
+        <v>2034.980591343435</v>
       </c>
       <c r="D20" t="n">
-        <v>1676.714892736684</v>
+        <v>1676.714892736685</v>
       </c>
       <c r="E20" t="n">
-        <v>1290.92664013844</v>
+        <v>1290.926640138441</v>
       </c>
       <c r="F20" t="n">
-        <v>879.9407353488318</v>
+        <v>879.9407353488333</v>
       </c>
       <c r="G20" t="n">
-        <v>464.2895605645069</v>
+        <v>464.2895605645083</v>
       </c>
       <c r="H20" t="n">
-        <v>160.7790965632352</v>
+        <v>160.7790965632361</v>
       </c>
       <c r="I20" t="n">
-        <v>96.47091653078513</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="J20" t="n">
-        <v>404.6146257394912</v>
+        <v>404.6146257394893</v>
       </c>
       <c r="K20" t="n">
-        <v>834.1987090322602</v>
+        <v>987.1869720747603</v>
       </c>
       <c r="L20" t="n">
-        <v>1609.207846774095</v>
+        <v>1762.196109816591</v>
       </c>
       <c r="M20" t="n">
-        <v>2043.142988100924</v>
+        <v>2196.131251143416</v>
       </c>
       <c r="N20" t="n">
-        <v>2921.68691722634</v>
+        <v>2921.686917226354</v>
       </c>
       <c r="O20" t="n">
-        <v>3706.083399096029</v>
+        <v>3706.083399096038</v>
       </c>
       <c r="P20" t="n">
-        <v>4337.873265810284</v>
+        <v>4337.873265810291</v>
       </c>
       <c r="Q20" t="n">
-        <v>4735.099384415988</v>
+        <v>4735.099384415991</v>
       </c>
       <c r="R20" t="n">
-        <v>4823.545826539256</v>
+        <v>4823.545826539258</v>
       </c>
       <c r="S20" t="n">
-        <v>4700.067470575686</v>
+        <v>4700.067470575688</v>
       </c>
       <c r="T20" t="n">
-        <v>4491.556355895053</v>
+        <v>4491.556355895055</v>
       </c>
       <c r="U20" t="n">
-        <v>4237.979581198544</v>
+        <v>4237.979581198545</v>
       </c>
       <c r="V20" t="n">
-        <v>3906.916693854973</v>
+        <v>3906.916693854974</v>
       </c>
       <c r="W20" t="n">
-        <v>3554.148038584859</v>
+        <v>3554.14803858486</v>
       </c>
       <c r="X20" t="n">
-        <v>3180.682280323779</v>
+        <v>3180.68228032378</v>
       </c>
       <c r="Y20" t="n">
-        <v>2790.542948347967</v>
+        <v>2790.542948347968</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>975.2358128726481</v>
+        <v>975.2358128726486</v>
       </c>
       <c r="C21" t="n">
-        <v>800.7827835915211</v>
+        <v>800.7827835915216</v>
       </c>
       <c r="D21" t="n">
-        <v>651.8483739302699</v>
+        <v>651.8483739302703</v>
       </c>
       <c r="E21" t="n">
-        <v>492.6109189248143</v>
+        <v>492.6109189248149</v>
       </c>
       <c r="F21" t="n">
-        <v>346.0763609516993</v>
+        <v>346.0763609516999</v>
       </c>
       <c r="G21" t="n">
-        <v>209.4036158092987</v>
+        <v>209.4036158092994</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9112028726446</v>
+        <v>115.911202872645</v>
       </c>
       <c r="I21" t="n">
-        <v>96.47091653078513</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="J21" t="n">
-        <v>161.4756940697412</v>
+        <v>286.3058190567448</v>
       </c>
       <c r="K21" t="n">
-        <v>350.7340374173734</v>
+        <v>514.3616377407262</v>
       </c>
       <c r="L21" t="n">
-        <v>651.5377771336416</v>
+        <v>815.1653774569918</v>
       </c>
       <c r="M21" t="n">
-        <v>1021.91842155899</v>
+        <v>1185.546021882337</v>
       </c>
       <c r="N21" t="n">
-        <v>1891.059535056139</v>
+        <v>1580.138184779365</v>
       </c>
       <c r="O21" t="n">
-        <v>2229.814479071856</v>
+        <v>1918.893128795079</v>
       </c>
       <c r="P21" t="n">
-        <v>2486.718911241361</v>
+        <v>2486.718911241363</v>
       </c>
       <c r="Q21" t="n">
         <v>2605.621125043147</v>
@@ -5862,10 +5862,10 @@
         <v>2276.540632068667</v>
       </c>
       <c r="U21" t="n">
-        <v>2048.452413823147</v>
+        <v>2048.452413823148</v>
       </c>
       <c r="V21" t="n">
-        <v>1813.300305591404</v>
+        <v>1813.300305591405</v>
       </c>
       <c r="W21" t="n">
         <v>1559.062948863203</v>
@@ -5874,7 +5874,7 @@
         <v>1351.21144865767</v>
       </c>
       <c r="Y21" t="n">
-        <v>1143.451149892716</v>
+        <v>1143.451149892717</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>710.3267799513312</v>
+        <v>583.4861714417156</v>
       </c>
       <c r="C22" t="n">
-        <v>541.3905970234243</v>
+        <v>414.5499885138087</v>
       </c>
       <c r="D22" t="n">
-        <v>391.2739576110886</v>
+        <v>264.4333491014729</v>
       </c>
       <c r="E22" t="n">
-        <v>243.3608640286955</v>
+        <v>264.4333491014729</v>
       </c>
       <c r="F22" t="n">
-        <v>96.47091653078513</v>
+        <v>264.4333491014729</v>
       </c>
       <c r="G22" t="n">
-        <v>96.47091653078513</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="H22" t="n">
-        <v>96.47091653078513</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="I22" t="n">
-        <v>96.47091653078513</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="J22" t="n">
-        <v>123.6053489609358</v>
+        <v>123.6053489609351</v>
       </c>
       <c r="K22" t="n">
-        <v>298.0323935255366</v>
+        <v>298.0323935255348</v>
       </c>
       <c r="L22" t="n">
-        <v>576.7653920416038</v>
+        <v>576.7653920416004</v>
       </c>
       <c r="M22" t="n">
-        <v>881.0393808211165</v>
+        <v>881.0393808211115</v>
       </c>
       <c r="N22" t="n">
-        <v>1183.51303065511</v>
+        <v>1183.513030655104</v>
       </c>
       <c r="O22" t="n">
-        <v>1446.880107541195</v>
+        <v>1446.880107541187</v>
       </c>
       <c r="P22" t="n">
-        <v>1648.715457656826</v>
+        <v>1648.715457656817</v>
       </c>
       <c r="Q22" t="n">
-        <v>1705.020711973851</v>
+        <v>1705.020711973841</v>
       </c>
       <c r="R22" t="n">
-        <v>1705.020711973851</v>
+        <v>1603.517877040626</v>
       </c>
       <c r="S22" t="n">
-        <v>1508.81077846118</v>
+        <v>1407.307943527954</v>
       </c>
       <c r="T22" t="n">
-        <v>1285.934980354877</v>
+        <v>1184.432145421652</v>
       </c>
       <c r="U22" t="n">
-        <v>1285.934980354877</v>
+        <v>1054.551806308916</v>
       </c>
       <c r="V22" t="n">
-        <v>1031.25049214899</v>
+        <v>1054.551806308916</v>
       </c>
       <c r="W22" t="n">
-        <v>1031.25049214899</v>
+        <v>765.1346362719553</v>
       </c>
       <c r="X22" t="n">
-        <v>931.1193590948614</v>
+        <v>765.1346362719553</v>
       </c>
       <c r="Y22" t="n">
-        <v>710.3267799513312</v>
+        <v>765.1346362719553</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2403.943108283846</v>
+        <v>2403.943108283847</v>
       </c>
       <c r="C23" t="n">
-        <v>2034.980591343434</v>
+        <v>2034.980591343436</v>
       </c>
       <c r="D23" t="n">
-        <v>1676.714892736684</v>
+        <v>1676.714892736685</v>
       </c>
       <c r="E23" t="n">
-        <v>1290.92664013844</v>
+        <v>1290.926640138441</v>
       </c>
       <c r="F23" t="n">
-        <v>879.9407353488318</v>
+        <v>879.9407353488334</v>
       </c>
       <c r="G23" t="n">
-        <v>464.2895605645069</v>
+        <v>464.2895605645083</v>
       </c>
       <c r="H23" t="n">
-        <v>160.7790965632352</v>
+        <v>160.7790965632361</v>
       </c>
       <c r="I23" t="n">
-        <v>96.47091653078513</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="J23" t="n">
-        <v>237.2089767191382</v>
+        <v>404.6146257394893</v>
       </c>
       <c r="K23" t="n">
-        <v>819.7813230544122</v>
+        <v>987.1869720747603</v>
       </c>
       <c r="L23" t="n">
-        <v>1594.790460796247</v>
+        <v>1609.207846774117</v>
       </c>
       <c r="M23" t="n">
-        <v>2043.142988100924</v>
+        <v>2043.142988100941</v>
       </c>
       <c r="N23" t="n">
-        <v>2921.68691722634</v>
+        <v>2921.686917226354</v>
       </c>
       <c r="O23" t="n">
-        <v>3706.083399096029</v>
+        <v>3706.083399096038</v>
       </c>
       <c r="P23" t="n">
-        <v>4337.873265810284</v>
+        <v>4337.873265810291</v>
       </c>
       <c r="Q23" t="n">
-        <v>4735.099384415988</v>
+        <v>4735.099384415991</v>
       </c>
       <c r="R23" t="n">
-        <v>4823.545826539256</v>
+        <v>4823.545826539258</v>
       </c>
       <c r="S23" t="n">
-        <v>4700.067470575686</v>
+        <v>4700.067470575688</v>
       </c>
       <c r="T23" t="n">
-        <v>4491.556355895053</v>
+        <v>4491.556355895055</v>
       </c>
       <c r="U23" t="n">
-        <v>4237.979581198544</v>
+        <v>4237.979581198546</v>
       </c>
       <c r="V23" t="n">
-        <v>3906.916693854973</v>
+        <v>3906.916693854975</v>
       </c>
       <c r="W23" t="n">
-        <v>3554.148038584859</v>
+        <v>3554.148038584861</v>
       </c>
       <c r="X23" t="n">
-        <v>3180.682280323779</v>
+        <v>3180.682280323781</v>
       </c>
       <c r="Y23" t="n">
-        <v>2790.542948347967</v>
+        <v>2790.542948347969</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>975.2358128726481</v>
+        <v>975.2358128726486</v>
       </c>
       <c r="C24" t="n">
-        <v>800.7827835915211</v>
+        <v>800.7827835915216</v>
       </c>
       <c r="D24" t="n">
-        <v>651.8483739302699</v>
+        <v>651.8483739302703</v>
       </c>
       <c r="E24" t="n">
-        <v>492.6109189248143</v>
+        <v>492.6109189248149</v>
       </c>
       <c r="F24" t="n">
-        <v>346.0763609516993</v>
+        <v>346.0763609516999</v>
       </c>
       <c r="G24" t="n">
-        <v>209.4036158092987</v>
+        <v>209.4036158092994</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9112028726446</v>
+        <v>115.911202872645</v>
       </c>
       <c r="I24" t="n">
-        <v>96.47091653078513</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="J24" t="n">
-        <v>161.4756940697412</v>
+        <v>161.4756940697401</v>
       </c>
       <c r="K24" t="n">
-        <v>350.7340374173734</v>
+        <v>612.5546220598231</v>
       </c>
       <c r="L24" t="n">
-        <v>651.5377771336416</v>
+        <v>922.4670035520389</v>
       </c>
       <c r="M24" t="n">
-        <v>1021.91842155899</v>
+        <v>1292.847647977384</v>
       </c>
       <c r="N24" t="n">
-        <v>1416.510584456021</v>
+        <v>1687.439810874412</v>
       </c>
       <c r="O24" t="n">
-        <v>1755.265528471738</v>
+        <v>2026.194754890126</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.091310918025</v>
+        <v>2278.742396382872</v>
       </c>
       <c r="Q24" t="n">
-        <v>2579.538722504889</v>
+        <v>2605.621125043147</v>
       </c>
       <c r="R24" t="n">
         <v>2605.621125043147</v>
@@ -6099,10 +6099,10 @@
         <v>2276.540632068667</v>
       </c>
       <c r="U24" t="n">
-        <v>2048.452413823147</v>
+        <v>2048.452413823148</v>
       </c>
       <c r="V24" t="n">
-        <v>1813.300305591404</v>
+        <v>1813.300305591405</v>
       </c>
       <c r="W24" t="n">
         <v>1559.062948863203</v>
@@ -6111,7 +6111,7 @@
         <v>1351.21144865767</v>
       </c>
       <c r="Y24" t="n">
-        <v>1143.451149892716</v>
+        <v>1143.451149892717</v>
       </c>
     </row>
     <row r="25">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>541.3905970234243</v>
+        <v>710.3267799513312</v>
       </c>
       <c r="C25" t="n">
         <v>541.3905970234243</v>
@@ -6133,64 +6133,64 @@
         <v>243.3608640286955</v>
       </c>
       <c r="F25" t="n">
-        <v>96.47091653078513</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="G25" t="n">
-        <v>96.47091653078513</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="H25" t="n">
-        <v>96.47091653078513</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="I25" t="n">
-        <v>96.47091653078513</v>
+        <v>96.47091653078516</v>
       </c>
       <c r="J25" t="n">
-        <v>123.6053489609358</v>
+        <v>123.6053489609351</v>
       </c>
       <c r="K25" t="n">
-        <v>298.0323935255366</v>
+        <v>298.0323935255348</v>
       </c>
       <c r="L25" t="n">
-        <v>576.7653920416038</v>
+        <v>576.7653920416004</v>
       </c>
       <c r="M25" t="n">
-        <v>881.0393808211165</v>
+        <v>881.0393808211115</v>
       </c>
       <c r="N25" t="n">
-        <v>1183.51303065511</v>
+        <v>1183.513030655104</v>
       </c>
       <c r="O25" t="n">
-        <v>1446.880107541195</v>
+        <v>1446.880107541187</v>
       </c>
       <c r="P25" t="n">
-        <v>1648.715457656826</v>
+        <v>1648.715457656817</v>
       </c>
       <c r="Q25" t="n">
-        <v>1705.020711973851</v>
+        <v>1705.020711973841</v>
       </c>
       <c r="R25" t="n">
-        <v>1705.020711973851</v>
+        <v>1705.020711973841</v>
       </c>
       <c r="S25" t="n">
-        <v>1705.020711973851</v>
+        <v>1508.81077846117</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.020711973851</v>
+        <v>1402.184993962062</v>
       </c>
       <c r="U25" t="n">
-        <v>1705.020711973851</v>
+        <v>1402.184993962062</v>
       </c>
       <c r="V25" t="n">
-        <v>1450.336223767964</v>
+        <v>1402.184993962062</v>
       </c>
       <c r="W25" t="n">
-        <v>1160.919053731003</v>
+        <v>1112.767823925101</v>
       </c>
       <c r="X25" t="n">
-        <v>943.8316409971942</v>
+        <v>1112.767823925101</v>
       </c>
       <c r="Y25" t="n">
-        <v>723.0390618536641</v>
+        <v>891.975244781571</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L26" t="n">
-        <v>1971.087962216427</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M26" t="n">
-        <v>2504.619866888352</v>
+        <v>2055.398642844496</v>
       </c>
       <c r="N26" t="n">
-        <v>3051.398683947134</v>
+        <v>2602.177459903278</v>
       </c>
       <c r="O26" t="n">
-        <v>3554.371154826471</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P26" t="n">
-        <v>4267.726242273417</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6379,7 +6379,7 @@
         <v>145.4370786819758</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
         <v>187.1890521477366</v>
@@ -6418,7 +6418,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V28" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W28" t="n">
         <v>1276.596863849073</v>
@@ -6452,10 +6452,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6464,19 +6464,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>1923.729615463053</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2903.481887689699</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3783.446538019154</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107237</v>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6646,7 +6646,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S31" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T31" t="n">
         <v>1967.452490122057</v>
@@ -6655,7 +6655,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W31" t="n">
         <v>1276.596863849073</v>
@@ -6689,37 +6689,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2782.232616025903</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3329.011433084685</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6777,10 +6777,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6795,22 +6795,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G34" t="n">
         <v>244.2046325160447</v>
@@ -6859,7 +6859,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L34" t="n">
         <v>800.7468040499223</v>
@@ -6895,13 +6895,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="35">
@@ -6917,55 +6917,55 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604875</v>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
         <v>487.9678785494859</v>
@@ -7005,13 +7005,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F37" t="n">
         <v>364.4578361932523</v>
@@ -7090,7 +7090,7 @@
         <v>145.4370786819758</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J37" t="n">
         <v>187.1890521477366</v>
@@ -7132,13 +7132,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1299.085123758012</v>
+        <v>1364.144379432265</v>
       </c>
       <c r="M38" t="n">
-        <v>1832.617028429936</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N38" t="n">
-        <v>2812.369300656583</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O38" t="n">
-        <v>3692.333950986038</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
         <v>487.9678785494859</v>
@@ -7242,7 +7242,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215055</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416718</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7354,13 +7354,13 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S40" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U40" t="n">
         <v>1725.799256195774</v>
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7412,19 +7412,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1236.699401366028</v>
+        <v>1963.918173296941</v>
       </c>
       <c r="M41" t="n">
-        <v>2215.249704195857</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N41" t="n">
-        <v>3195.001976422504</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O41" t="n">
-        <v>3865.782086996753</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P41" t="n">
         <v>4260.556453353931</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215047</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416711</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774087</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.898150743089</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
-        <v>364.457836193252</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160443</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7600,7 +7600,7 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036711</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7649,22 +7649,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L44" t="n">
-        <v>1586.925993846824</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M44" t="n">
-        <v>2120.457898518748</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N44" t="n">
-        <v>2667.236715577531</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
         <v>4719.034655862919</v>
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7746,7 +7746,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,16 +7755,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
         <v>1346.568408282342</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215055</v>
+        <v>788.5151678215051</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416719</v>
+        <v>667.0286178416715</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774091</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
         <v>437.6816203490197</v>
@@ -7819,25 +7819,25 @@
         <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036714</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142009</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>314.8032524166895</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.6316695220359</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>35.80074480127134</v>
+        <v>35.80074480127131</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8939,10 +8939,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>376.583167441452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>164.8796013507628</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>9.200648258517617</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>219.277935994353</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>19.17580866156612</v>
+        <v>19.1758086615656</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9173,16 +9173,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>155.0985000578318</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>101.5098858774774</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>93.18690065397607</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.9028277034842</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>19.17580866156607</v>
+        <v>19.17580866156683</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>169.6118135383315</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>282.8133253791819</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>39.18936902661736</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>4.400798663390049</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>19.17580866156607</v>
+        <v>19.17580866156683</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>263.1276155176481</v>
       </c>
       <c r="M23" t="n">
-        <v>14.5630161392404</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9717,10 +9717,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>9.20064825853558</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>138.9345432172519</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>19.17580866156683</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,10 +9875,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561042</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>205.0727796301213</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,22 +10112,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>295.4822118493984</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>246.454569480845</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>148.4180109385406</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>63.01588120402374</v>
+        <v>297.8289162490807</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>410.4190035206666</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>169.5026663584972</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11297,25 +11297,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L44" t="n">
-        <v>198.7154374299952</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>96.00979803611821</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>78.27239682725727</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>123.7036006589117</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>38.55417684564873</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>38.5541768456462</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>149.0358579227903</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>110.5814875574605</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>198.160002884853</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2381010461556</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>86.84461096088424</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>133.335041913604</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>166.2828082449809</v>
       </c>
       <c r="H16" t="n">
-        <v>147.0399784257908</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>100.4878065838827</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>194.2478341775443</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.6470401252397</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2258563866648</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.2450733962185</v>
+        <v>174.8413987077659</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.2828082449809</v>
       </c>
       <c r="H19" t="n">
-        <v>147.0399784257908</v>
+        <v>139.8881789113336</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>104.0811108964876</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>100.4878065838826</v>
+        <v>100.4878065838831</v>
       </c>
       <c r="S19" t="n">
-        <v>194.2478341775442</v>
+        <v>194.2478341775444</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2258563866648</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>105.2093975561615</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2828082449809</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.0399784257908</v>
+        <v>147.0399784257909</v>
       </c>
       <c r="I22" t="n">
-        <v>104.0811108964873</v>
+        <v>104.0811108964876</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>100.4878065838826</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2258563866648</v>
+        <v>157.6443206650564</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>126.5798336654494</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>166.2828082449809</v>
       </c>
       <c r="H25" t="n">
-        <v>147.0399784257908</v>
+        <v>147.0399784257909</v>
       </c>
       <c r="I25" t="n">
-        <v>104.0811108964873</v>
+        <v>104.0811108964876</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>100.4878065838826</v>
+        <v>100.4878065838831</v>
       </c>
       <c r="S25" t="n">
-        <v>194.2478341775442</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.6470401252397</v>
+        <v>115.0875134711228</v>
       </c>
       <c r="U25" t="n">
         <v>286.2258563866648</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>10.79311678256619</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-4.425349103841632e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56720.03745374287</v>
+        <v>56720.03745374291</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="D2" t="n">
         <v>61578.13273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>58397.55029647614</v>
+        <v>58397.55029647615</v>
       </c>
       <c r="F2" t="n">
+        <v>59063.43846892202</v>
+      </c>
+      <c r="G2" t="n">
         <v>59063.43846892204</v>
       </c>
-      <c r="G2" t="n">
-        <v>59063.43846892202</v>
-      </c>
       <c r="H2" t="n">
-        <v>59063.43846892205</v>
+        <v>59063.43846892204</v>
       </c>
       <c r="I2" t="n">
         <v>59063.43846892202</v>
@@ -26338,19 +26338,19 @@
         <v>61578.13273982117</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982115</v>
+        <v>61578.13273982117</v>
       </c>
       <c r="L2" t="n">
         <v>61578.13273982119</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982118</v>
+        <v>61578.1327398212</v>
       </c>
       <c r="N2" t="n">
         <v>61578.13273982121</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982117</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>516260.2423625307</v>
+        <v>516260.242362531</v>
       </c>
       <c r="F3" t="n">
-        <v>98400.42035720707</v>
+        <v>98400.42035721004</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-5.581316482105953e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>316461.1761254712</v>
+        <v>316461.1761254756</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132476.6430196959</v>
+        <v>132476.6430196961</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487401</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146377.4756669078</v>
+        <v>146377.475666908</v>
       </c>
       <c r="C4" t="n">
         <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
         <v>36572.93180727873</v>
       </c>
       <c r="F4" t="n">
-        <v>28193.40871591311</v>
+        <v>28193.40871591286</v>
       </c>
       <c r="G4" t="n">
-        <v>28193.40871591307</v>
+        <v>28193.40871591349</v>
       </c>
       <c r="H4" t="n">
-        <v>28193.40871591308</v>
+        <v>28193.40871591349</v>
       </c>
       <c r="I4" t="n">
-        <v>28193.40871591308</v>
+        <v>28193.40871591349</v>
       </c>
       <c r="J4" t="n">
-        <v>33605.653297409</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="K4" t="n">
         <v>33605.65329740899</v>
@@ -26448,16 +26448,16 @@
         <v>33605.65329740899</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740901</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.653297409</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340948</v>
+      </c>
+      <c r="C5" t="n">
+        <v>82859.07806340947</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
-      <c r="C5" t="n">
-        <v>82859.07806340946</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340947</v>
-      </c>
       <c r="E5" t="n">
-        <v>91254.3077440374</v>
+        <v>91254.30774403745</v>
       </c>
       <c r="F5" t="n">
-        <v>93968.13244251373</v>
+        <v>93968.13244251384</v>
       </c>
       <c r="G5" t="n">
-        <v>93968.13244251374</v>
+        <v>93968.13244251364</v>
       </c>
       <c r="H5" t="n">
-        <v>93968.13244251374</v>
+        <v>93968.13244251364</v>
       </c>
       <c r="I5" t="n">
-        <v>93968.13244251374</v>
+        <v>93968.13244251364</v>
       </c>
       <c r="J5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-762484.395491119</v>
+        <v>-762646.3320006552</v>
       </c>
       <c r="C6" t="n">
-        <v>-204629.6321807161</v>
+        <v>-204629.6321807162</v>
       </c>
       <c r="D6" t="n">
         <v>-204629.6321807162</v>
       </c>
       <c r="E6" t="n">
-        <v>-585689.9316173707</v>
+        <v>-585795.9510321493</v>
       </c>
       <c r="F6" t="n">
-        <v>-161498.5230467119</v>
+        <v>-161582.346189078</v>
       </c>
       <c r="G6" t="n">
-        <v>-63098.10268950479</v>
+        <v>-63181.92583186115</v>
       </c>
       <c r="H6" t="n">
-        <v>-63098.10268950477</v>
+        <v>-63181.92583186839</v>
       </c>
       <c r="I6" t="n">
-        <v>-63098.1026895048</v>
+        <v>-63181.92583186841</v>
       </c>
       <c r="J6" t="n">
-        <v>-388821.3676971612</v>
+        <v>-388821.3676971655</v>
       </c>
       <c r="K6" t="n">
-        <v>-72360.19157168997</v>
+        <v>-72360.19157168994</v>
       </c>
       <c r="L6" t="n">
         <v>-72360.19157168991</v>
       </c>
       <c r="M6" t="n">
-        <v>-204836.8345913858</v>
+        <v>-204836.834591386</v>
       </c>
       <c r="N6" t="n">
-        <v>-72360.19157168988</v>
+        <v>-72360.19157168991</v>
       </c>
       <c r="O6" t="n">
-        <v>-109940.300866564</v>
+        <v>-109940.3008665639</v>
       </c>
       <c r="P6" t="n">
-        <v>-72360.19157168994</v>
+        <v>-72360.19157168995</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>46.97513661859254</v>
       </c>
       <c r="N2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859254</v>
       </c>
-      <c r="O2" t="n">
-        <v>46.97513661859258</v>
-      </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,19 +26744,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>822.7711550752623</v>
+        <v>822.7711550752625</v>
       </c>
       <c r="F3" t="n">
-        <v>947.2585265650017</v>
+        <v>947.2585265650057</v>
       </c>
       <c r="G3" t="n">
-        <v>947.2585265650022</v>
+        <v>947.2585265649964</v>
       </c>
       <c r="H3" t="n">
-        <v>947.2585265650022</v>
+        <v>947.2585265649964</v>
       </c>
       <c r="I3" t="n">
-        <v>947.2585265650022</v>
+        <v>947.2585265649964</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="C4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="E4" t="n">
-        <v>1205.886456634814</v>
+        <v>1205.886456634815</v>
       </c>
       <c r="F4" t="n">
-        <v>1205.886456634814</v>
+        <v>1205.886456634815</v>
       </c>
       <c r="G4" t="n">
-        <v>1205.886456634814</v>
+        <v>1205.886456634815</v>
       </c>
       <c r="H4" t="n">
-        <v>1205.886456634814</v>
+        <v>1205.886456634815</v>
       </c>
       <c r="I4" t="n">
-        <v>1205.886456634814</v>
+        <v>1205.886456634815</v>
       </c>
       <c r="J4" t="n">
         <v>1194.51293060493</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>445.0274908581756</v>
+        <v>445.0274908581758</v>
       </c>
       <c r="F3" t="n">
-        <v>124.4873714897394</v>
+        <v>124.4873714897432</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-8.379710474580944e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>142.5181740282961</v>
+        <v>142.5181740283019</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>531.5991838802584</v>
+        <v>531.5991838802589</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>531.5991838802584</v>
+        <v>531.5991838802591</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>531.5991838802584</v>
+        <v>531.5991838802589</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>351.5544024065895</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>120.6364007299712</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>11.14885181066246</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>291.9721116085901</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>87.3972858267058</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>132.4718208966448</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>316.1488790919085</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>86.45129211690642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>67.86559733750978</v>
+        <v>60.4312611894733</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31045,7 +31045,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31054,34 +31054,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,40 +31118,40 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
@@ -31160,7 +31160,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,25 +31221,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.307622733970901</v>
+        <v>3.307622733970902</v>
       </c>
       <c r="H11" t="n">
-        <v>33.8741913242795</v>
+        <v>33.87419132427951</v>
       </c>
       <c r="I11" t="n">
         <v>127.5171254514133</v>
       </c>
       <c r="J11" t="n">
-        <v>280.730345017363</v>
+        <v>280.7303450173631</v>
       </c>
       <c r="K11" t="n">
-        <v>420.7420153463514</v>
+        <v>420.7420153463515</v>
       </c>
       <c r="L11" t="n">
-        <v>521.9676745911135</v>
+        <v>521.9676745911136</v>
       </c>
       <c r="M11" t="n">
-        <v>580.7896103863684</v>
+        <v>580.7896103863686</v>
       </c>
       <c r="N11" t="n">
-        <v>590.1873934792633</v>
+        <v>590.1873934792635</v>
       </c>
       <c r="O11" t="n">
-        <v>557.2972199183401</v>
+        <v>557.2972199183403</v>
       </c>
       <c r="P11" t="n">
-        <v>475.6402836734334</v>
+        <v>475.6402836734335</v>
       </c>
       <c r="Q11" t="n">
-        <v>357.1860445131004</v>
+        <v>357.1860445131005</v>
       </c>
       <c r="R11" t="n">
-        <v>207.7724565627998</v>
+        <v>207.7724565627999</v>
       </c>
       <c r="S11" t="n">
-        <v>75.37245305036198</v>
+        <v>75.37245305036201</v>
       </c>
       <c r="T11" t="n">
         <v>14.47911851795763</v>
       </c>
       <c r="U11" t="n">
-        <v>0.264609818717672</v>
+        <v>0.2646098187176721</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.769734182614715</v>
+        <v>1.769734182614716</v>
       </c>
       <c r="H12" t="n">
         <v>17.09190644788423</v>
       </c>
       <c r="I12" t="n">
-        <v>60.93163742774349</v>
+        <v>60.93163742774351</v>
       </c>
       <c r="J12" t="n">
-        <v>167.2010702969455</v>
+        <v>167.2010702969456</v>
       </c>
       <c r="K12" t="n">
         <v>285.7732605321315</v>
       </c>
       <c r="L12" t="n">
-        <v>384.2574153962346</v>
+        <v>384.2574153962347</v>
       </c>
       <c r="M12" t="n">
-        <v>448.4102795160179</v>
+        <v>448.410279516018</v>
       </c>
       <c r="N12" t="n">
-        <v>460.2783653283772</v>
+        <v>460.2783653283773</v>
       </c>
       <c r="O12" t="n">
-        <v>421.064781597809</v>
+        <v>421.0647815978091</v>
       </c>
       <c r="P12" t="n">
-        <v>337.9416089591205</v>
+        <v>337.9416089591206</v>
       </c>
       <c r="Q12" t="n">
-        <v>225.9050160123626</v>
+        <v>225.9050160123627</v>
       </c>
       <c r="R12" t="n">
         <v>109.8787591626926</v>
       </c>
       <c r="S12" t="n">
-        <v>32.87203624286541</v>
+        <v>32.87203624286542</v>
       </c>
       <c r="T12" t="n">
-        <v>7.133270674661941</v>
+        <v>7.133270674661944</v>
       </c>
       <c r="U12" t="n">
         <v>0.1164298804351787</v>
@@ -31914,7 +31914,7 @@
         <v>13.1913145846493</v>
       </c>
       <c r="I13" t="n">
-        <v>44.61847509817981</v>
+        <v>44.61847509817982</v>
       </c>
       <c r="J13" t="n">
         <v>104.8965782462347</v>
@@ -31923,34 +31923,34 @@
         <v>172.3773010141287</v>
       </c>
       <c r="L13" t="n">
-        <v>220.5835978705056</v>
+        <v>220.5835978705057</v>
       </c>
       <c r="M13" t="n">
         <v>232.5744758518483</v>
       </c>
       <c r="N13" t="n">
-        <v>227.0443746456049</v>
+        <v>227.044374645605</v>
       </c>
       <c r="O13" t="n">
-        <v>209.7122281821341</v>
+        <v>209.7122281821342</v>
       </c>
       <c r="P13" t="n">
-        <v>179.4450401167423</v>
+        <v>179.4450401167424</v>
       </c>
       <c r="Q13" t="n">
         <v>124.2384444163646</v>
       </c>
       <c r="R13" t="n">
-        <v>66.71190381970895</v>
+        <v>66.71190381970897</v>
       </c>
       <c r="S13" t="n">
         <v>25.8565951521193</v>
       </c>
       <c r="T13" t="n">
-        <v>6.339384309596281</v>
+        <v>6.339384309596283</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08092831033527179</v>
+        <v>0.08092831033527181</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.80807447865327</v>
+        <v>3.808074478653286</v>
       </c>
       <c r="H14" t="n">
-        <v>38.99944275450782</v>
+        <v>38.99944275450798</v>
       </c>
       <c r="I14" t="n">
-        <v>146.8107913382804</v>
+        <v>146.8107913382809</v>
       </c>
       <c r="J14" t="n">
-        <v>323.2055612825983</v>
+        <v>323.2055612825997</v>
       </c>
       <c r="K14" t="n">
-        <v>484.4013539639913</v>
+        <v>484.4013539639934</v>
       </c>
       <c r="L14" t="n">
-        <v>600.9427132900764</v>
+        <v>600.942713290079</v>
       </c>
       <c r="M14" t="n">
-        <v>668.6645577998265</v>
+        <v>668.6645577998294</v>
       </c>
       <c r="N14" t="n">
-        <v>679.4842494123002</v>
+        <v>679.484249412303</v>
       </c>
       <c r="O14" t="n">
-        <v>641.6177088151917</v>
+        <v>641.6177088151944</v>
       </c>
       <c r="P14" t="n">
-        <v>547.605870123439</v>
+        <v>547.6058701234413</v>
       </c>
       <c r="Q14" t="n">
-        <v>411.2292028566686</v>
+        <v>411.2292028566704</v>
       </c>
       <c r="R14" t="n">
-        <v>239.2089584697037</v>
+        <v>239.2089584697047</v>
       </c>
       <c r="S14" t="n">
-        <v>86.77649718231149</v>
+        <v>86.77649718231184</v>
       </c>
       <c r="T14" t="n">
-        <v>16.6698460303047</v>
+        <v>16.66984603030477</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3046459582922615</v>
+        <v>0.3046459582922628</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.037499472234155</v>
+        <v>2.037499472234163</v>
       </c>
       <c r="H15" t="n">
-        <v>19.67795542920881</v>
+        <v>19.6779554292089</v>
       </c>
       <c r="I15" t="n">
-        <v>70.15074937297419</v>
+        <v>70.15074937297449</v>
       </c>
       <c r="J15" t="n">
-        <v>192.4990181201576</v>
+        <v>192.4990181201584</v>
       </c>
       <c r="K15" t="n">
-        <v>329.0114827598459</v>
+        <v>329.0114827598474</v>
       </c>
       <c r="L15" t="n">
-        <v>442.3965411094379</v>
+        <v>442.3965411094397</v>
       </c>
       <c r="M15" t="n">
-        <v>516.2558969779259</v>
+        <v>516.255896977928</v>
       </c>
       <c r="N15" t="n">
-        <v>529.9196544035664</v>
+        <v>529.9196544035686</v>
       </c>
       <c r="O15" t="n">
-        <v>484.7729555714307</v>
+        <v>484.7729555714327</v>
       </c>
       <c r="P15" t="n">
-        <v>389.0730351847835</v>
+        <v>389.0730351847851</v>
       </c>
       <c r="Q15" t="n">
-        <v>260.0850203504511</v>
+        <v>260.0850203504522</v>
       </c>
       <c r="R15" t="n">
-        <v>126.5036953023978</v>
+        <v>126.5036953023984</v>
       </c>
       <c r="S15" t="n">
-        <v>37.84565905663</v>
+        <v>37.84565905663015</v>
       </c>
       <c r="T15" t="n">
-        <v>8.212552697294681</v>
+        <v>8.212552697294717</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1340460179101418</v>
+        <v>0.1340460179101424</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.708171113477872</v>
+        <v>1.708171113477879</v>
       </c>
       <c r="H16" t="n">
-        <v>15.18719408164872</v>
+        <v>15.18719408164879</v>
       </c>
       <c r="I16" t="n">
-        <v>51.36936403077092</v>
+        <v>51.36936403077114</v>
       </c>
       <c r="J16" t="n">
-        <v>120.7676977228855</v>
+        <v>120.767697722886</v>
       </c>
       <c r="K16" t="n">
-        <v>198.45842572952</v>
+        <v>198.4584257295208</v>
       </c>
       <c r="L16" t="n">
-        <v>253.9584580892465</v>
+        <v>253.9584580892476</v>
       </c>
       <c r="M16" t="n">
-        <v>267.7635864518085</v>
+        <v>267.7635864518097</v>
       </c>
       <c r="N16" t="n">
-        <v>261.3967668470276</v>
+        <v>261.3967668470287</v>
       </c>
       <c r="O16" t="n">
-        <v>241.4422224759451</v>
+        <v>241.4422224759461</v>
       </c>
       <c r="P16" t="n">
-        <v>206.5955317609963</v>
+        <v>206.5955317609972</v>
       </c>
       <c r="Q16" t="n">
-        <v>143.0360375113152</v>
+        <v>143.0360375113159</v>
       </c>
       <c r="R16" t="n">
-        <v>76.80558479328683</v>
+        <v>76.80558479328715</v>
       </c>
       <c r="S16" t="n">
-        <v>29.76876385942799</v>
+        <v>29.76876385942812</v>
       </c>
       <c r="T16" t="n">
-        <v>7.298549303041814</v>
+        <v>7.298549303041844</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09317296982606584</v>
+        <v>0.09317296982606624</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.808074478653272</v>
+        <v>3.808074478653249</v>
       </c>
       <c r="H17" t="n">
-        <v>38.99944275450783</v>
+        <v>38.9994427545076</v>
       </c>
       <c r="I17" t="n">
-        <v>146.8107913382804</v>
+        <v>146.8107913382795</v>
       </c>
       <c r="J17" t="n">
-        <v>323.2055612825985</v>
+        <v>323.2055612825965</v>
       </c>
       <c r="K17" t="n">
-        <v>484.4013539639915</v>
+        <v>484.4013539639886</v>
       </c>
       <c r="L17" t="n">
-        <v>600.9427132900768</v>
+        <v>600.9427132900731</v>
       </c>
       <c r="M17" t="n">
-        <v>668.6645577998269</v>
+        <v>668.6645577998228</v>
       </c>
       <c r="N17" t="n">
-        <v>679.4842494123005</v>
+        <v>679.4842494122963</v>
       </c>
       <c r="O17" t="n">
-        <v>641.617708815192</v>
+        <v>641.6177088151881</v>
       </c>
       <c r="P17" t="n">
-        <v>547.6058701234392</v>
+        <v>547.6058701234359</v>
       </c>
       <c r="Q17" t="n">
-        <v>411.2292028566688</v>
+        <v>411.2292028566663</v>
       </c>
       <c r="R17" t="n">
-        <v>239.2089584697038</v>
+        <v>239.2089584697024</v>
       </c>
       <c r="S17" t="n">
-        <v>86.77649718231153</v>
+        <v>86.77649718231099</v>
       </c>
       <c r="T17" t="n">
-        <v>16.66984603030471</v>
+        <v>16.6698460303046</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3046459582922617</v>
+        <v>0.3046459582922598</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.037499472234156</v>
+        <v>2.037499472234143</v>
       </c>
       <c r="H18" t="n">
-        <v>19.67795542920882</v>
+        <v>19.6779554292087</v>
       </c>
       <c r="I18" t="n">
-        <v>70.15074937297423</v>
+        <v>70.15074937297379</v>
       </c>
       <c r="J18" t="n">
-        <v>192.4990181201577</v>
+        <v>192.4990181201565</v>
       </c>
       <c r="K18" t="n">
-        <v>329.0114827598461</v>
+        <v>329.0114827598441</v>
       </c>
       <c r="L18" t="n">
-        <v>442.3965411094381</v>
+        <v>442.3965411094354</v>
       </c>
       <c r="M18" t="n">
-        <v>516.2558969779261</v>
+        <v>516.2558969779229</v>
       </c>
       <c r="N18" t="n">
-        <v>529.9196544035667</v>
+        <v>529.9196544035634</v>
       </c>
       <c r="O18" t="n">
-        <v>484.7729555714309</v>
+        <v>484.7729555714279</v>
       </c>
       <c r="P18" t="n">
-        <v>389.0730351847837</v>
+        <v>389.0730351847813</v>
       </c>
       <c r="Q18" t="n">
-        <v>260.0850203504512</v>
+        <v>260.0850203504496</v>
       </c>
       <c r="R18" t="n">
-        <v>126.5036953023979</v>
+        <v>126.5036953023971</v>
       </c>
       <c r="S18" t="n">
-        <v>37.84565905663001</v>
+        <v>37.84565905662978</v>
       </c>
       <c r="T18" t="n">
-        <v>8.212552697294687</v>
+        <v>8.212552697294635</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1340460179101419</v>
+        <v>0.1340460179101411</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.708171113477873</v>
+        <v>1.708171113477862</v>
       </c>
       <c r="H19" t="n">
-        <v>15.18719408164873</v>
+        <v>15.18719408164864</v>
       </c>
       <c r="I19" t="n">
-        <v>51.36936403077095</v>
+        <v>51.36936403077063</v>
       </c>
       <c r="J19" t="n">
-        <v>120.7676977228856</v>
+        <v>120.7676977228848</v>
       </c>
       <c r="K19" t="n">
-        <v>198.4584257295201</v>
+        <v>198.4584257295188</v>
       </c>
       <c r="L19" t="n">
-        <v>253.9584580892467</v>
+        <v>253.9584580892451</v>
       </c>
       <c r="M19" t="n">
-        <v>267.7635864518087</v>
+        <v>267.763586451807</v>
       </c>
       <c r="N19" t="n">
-        <v>261.3967668470277</v>
+        <v>261.3967668470261</v>
       </c>
       <c r="O19" t="n">
-        <v>241.4422224759452</v>
+        <v>241.4422224759437</v>
       </c>
       <c r="P19" t="n">
-        <v>206.5955317609964</v>
+        <v>206.5955317609952</v>
       </c>
       <c r="Q19" t="n">
-        <v>143.0360375113153</v>
+        <v>143.0360375113144</v>
       </c>
       <c r="R19" t="n">
-        <v>76.80558479328687</v>
+        <v>76.8055847932864</v>
       </c>
       <c r="S19" t="n">
-        <v>29.76876385942801</v>
+        <v>29.76876385942782</v>
       </c>
       <c r="T19" t="n">
-        <v>7.298549303041817</v>
+        <v>7.298549303041773</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09317296982606589</v>
+        <v>0.09317296982606531</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.808074478653272</v>
+        <v>3.808074478653249</v>
       </c>
       <c r="H20" t="n">
-        <v>38.99944275450783</v>
+        <v>38.9994427545076</v>
       </c>
       <c r="I20" t="n">
-        <v>146.8107913382804</v>
+        <v>146.8107913382795</v>
       </c>
       <c r="J20" t="n">
-        <v>323.2055612825985</v>
+        <v>323.2055612825965</v>
       </c>
       <c r="K20" t="n">
-        <v>484.4013539639915</v>
+        <v>484.4013539639886</v>
       </c>
       <c r="L20" t="n">
-        <v>600.9427132900768</v>
+        <v>600.9427132900731</v>
       </c>
       <c r="M20" t="n">
-        <v>668.6645577998269</v>
+        <v>668.6645577998228</v>
       </c>
       <c r="N20" t="n">
-        <v>679.4842494123005</v>
+        <v>679.4842494122963</v>
       </c>
       <c r="O20" t="n">
-        <v>641.617708815192</v>
+        <v>641.6177088151881</v>
       </c>
       <c r="P20" t="n">
-        <v>547.6058701234392</v>
+        <v>547.6058701234359</v>
       </c>
       <c r="Q20" t="n">
-        <v>411.2292028566688</v>
+        <v>411.2292028566663</v>
       </c>
       <c r="R20" t="n">
-        <v>239.2089584697038</v>
+        <v>239.2089584697024</v>
       </c>
       <c r="S20" t="n">
-        <v>86.77649718231153</v>
+        <v>86.77649718231099</v>
       </c>
       <c r="T20" t="n">
-        <v>16.66984603030471</v>
+        <v>16.6698460303046</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3046459582922617</v>
+        <v>0.3046459582922598</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.037499472234156</v>
+        <v>2.037499472234143</v>
       </c>
       <c r="H21" t="n">
-        <v>19.67795542920882</v>
+        <v>19.6779554292087</v>
       </c>
       <c r="I21" t="n">
-        <v>70.15074937297423</v>
+        <v>70.15074937297379</v>
       </c>
       <c r="J21" t="n">
-        <v>192.4990181201577</v>
+        <v>192.4990181201565</v>
       </c>
       <c r="K21" t="n">
-        <v>329.0114827598461</v>
+        <v>329.0114827598441</v>
       </c>
       <c r="L21" t="n">
-        <v>442.3965411094381</v>
+        <v>442.3965411094354</v>
       </c>
       <c r="M21" t="n">
-        <v>516.2558969779261</v>
+        <v>516.2558969779229</v>
       </c>
       <c r="N21" t="n">
-        <v>529.9196544035667</v>
+        <v>529.9196544035634</v>
       </c>
       <c r="O21" t="n">
-        <v>484.7729555714309</v>
+        <v>484.7729555714279</v>
       </c>
       <c r="P21" t="n">
-        <v>389.0730351847837</v>
+        <v>389.0730351847813</v>
       </c>
       <c r="Q21" t="n">
-        <v>260.0850203504512</v>
+        <v>260.0850203504496</v>
       </c>
       <c r="R21" t="n">
-        <v>126.5036953023979</v>
+        <v>126.5036953023971</v>
       </c>
       <c r="S21" t="n">
-        <v>37.84565905663001</v>
+        <v>37.84565905662978</v>
       </c>
       <c r="T21" t="n">
-        <v>8.212552697294687</v>
+        <v>8.212552697294635</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1340460179101419</v>
+        <v>0.1340460179101411</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.708171113477873</v>
+        <v>1.708171113477862</v>
       </c>
       <c r="H22" t="n">
-        <v>15.18719408164873</v>
+        <v>15.18719408164864</v>
       </c>
       <c r="I22" t="n">
-        <v>51.36936403077095</v>
+        <v>51.36936403077063</v>
       </c>
       <c r="J22" t="n">
-        <v>120.7676977228856</v>
+        <v>120.7676977228848</v>
       </c>
       <c r="K22" t="n">
-        <v>198.4584257295201</v>
+        <v>198.4584257295188</v>
       </c>
       <c r="L22" t="n">
-        <v>253.9584580892467</v>
+        <v>253.9584580892451</v>
       </c>
       <c r="M22" t="n">
-        <v>267.7635864518087</v>
+        <v>267.763586451807</v>
       </c>
       <c r="N22" t="n">
-        <v>261.3967668470277</v>
+        <v>261.3967668470261</v>
       </c>
       <c r="O22" t="n">
-        <v>241.4422224759452</v>
+        <v>241.4422224759437</v>
       </c>
       <c r="P22" t="n">
-        <v>206.5955317609964</v>
+        <v>206.5955317609952</v>
       </c>
       <c r="Q22" t="n">
-        <v>143.0360375113153</v>
+        <v>143.0360375113144</v>
       </c>
       <c r="R22" t="n">
-        <v>76.80558479328687</v>
+        <v>76.8055847932864</v>
       </c>
       <c r="S22" t="n">
-        <v>29.76876385942801</v>
+        <v>29.76876385942782</v>
       </c>
       <c r="T22" t="n">
-        <v>7.298549303041817</v>
+        <v>7.298549303041773</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09317296982606589</v>
+        <v>0.09317296982606531</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.808074478653272</v>
+        <v>3.808074478653249</v>
       </c>
       <c r="H23" t="n">
-        <v>38.99944275450783</v>
+        <v>38.9994427545076</v>
       </c>
       <c r="I23" t="n">
-        <v>146.8107913382804</v>
+        <v>146.8107913382795</v>
       </c>
       <c r="J23" t="n">
-        <v>323.2055612825985</v>
+        <v>323.2055612825965</v>
       </c>
       <c r="K23" t="n">
-        <v>484.4013539639915</v>
+        <v>484.4013539639886</v>
       </c>
       <c r="L23" t="n">
-        <v>600.9427132900768</v>
+        <v>600.9427132900731</v>
       </c>
       <c r="M23" t="n">
-        <v>668.6645577998269</v>
+        <v>668.6645577998228</v>
       </c>
       <c r="N23" t="n">
-        <v>679.4842494123005</v>
+        <v>679.4842494122963</v>
       </c>
       <c r="O23" t="n">
-        <v>641.617708815192</v>
+        <v>641.6177088151881</v>
       </c>
       <c r="P23" t="n">
-        <v>547.6058701234392</v>
+        <v>547.6058701234359</v>
       </c>
       <c r="Q23" t="n">
-        <v>411.2292028566688</v>
+        <v>411.2292028566663</v>
       </c>
       <c r="R23" t="n">
-        <v>239.2089584697038</v>
+        <v>239.2089584697024</v>
       </c>
       <c r="S23" t="n">
-        <v>86.77649718231153</v>
+        <v>86.77649718231099</v>
       </c>
       <c r="T23" t="n">
-        <v>16.66984603030471</v>
+        <v>16.6698460303046</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3046459582922617</v>
+        <v>0.3046459582922598</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.037499472234156</v>
+        <v>2.037499472234143</v>
       </c>
       <c r="H24" t="n">
-        <v>19.67795542920882</v>
+        <v>19.6779554292087</v>
       </c>
       <c r="I24" t="n">
-        <v>70.15074937297423</v>
+        <v>70.15074937297379</v>
       </c>
       <c r="J24" t="n">
-        <v>192.4990181201577</v>
+        <v>192.4990181201565</v>
       </c>
       <c r="K24" t="n">
-        <v>329.0114827598461</v>
+        <v>329.0114827598441</v>
       </c>
       <c r="L24" t="n">
-        <v>442.3965411094381</v>
+        <v>442.3965411094354</v>
       </c>
       <c r="M24" t="n">
-        <v>516.2558969779261</v>
+        <v>516.2558969779229</v>
       </c>
       <c r="N24" t="n">
-        <v>529.9196544035667</v>
+        <v>529.9196544035634</v>
       </c>
       <c r="O24" t="n">
-        <v>484.7729555714309</v>
+        <v>484.7729555714279</v>
       </c>
       <c r="P24" t="n">
-        <v>389.0730351847837</v>
+        <v>389.0730351847813</v>
       </c>
       <c r="Q24" t="n">
-        <v>260.0850203504512</v>
+        <v>260.0850203504496</v>
       </c>
       <c r="R24" t="n">
-        <v>126.5036953023979</v>
+        <v>126.5036953023971</v>
       </c>
       <c r="S24" t="n">
-        <v>37.84565905663001</v>
+        <v>37.84565905662978</v>
       </c>
       <c r="T24" t="n">
-        <v>8.212552697294687</v>
+        <v>8.212552697294635</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1340460179101419</v>
+        <v>0.1340460179101411</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.708171113477873</v>
+        <v>1.708171113477862</v>
       </c>
       <c r="H25" t="n">
-        <v>15.18719408164873</v>
+        <v>15.18719408164864</v>
       </c>
       <c r="I25" t="n">
-        <v>51.36936403077095</v>
+        <v>51.36936403077063</v>
       </c>
       <c r="J25" t="n">
-        <v>120.7676977228856</v>
+        <v>120.7676977228848</v>
       </c>
       <c r="K25" t="n">
-        <v>198.4584257295201</v>
+        <v>198.4584257295188</v>
       </c>
       <c r="L25" t="n">
-        <v>253.9584580892467</v>
+        <v>253.9584580892451</v>
       </c>
       <c r="M25" t="n">
-        <v>267.7635864518087</v>
+        <v>267.763586451807</v>
       </c>
       <c r="N25" t="n">
-        <v>261.3967668470277</v>
+        <v>261.3967668470261</v>
       </c>
       <c r="O25" t="n">
-        <v>241.4422224759452</v>
+        <v>241.4422224759437</v>
       </c>
       <c r="P25" t="n">
-        <v>206.5955317609964</v>
+        <v>206.5955317609952</v>
       </c>
       <c r="Q25" t="n">
-        <v>143.0360375113153</v>
+        <v>143.0360375113144</v>
       </c>
       <c r="R25" t="n">
-        <v>76.80558479328687</v>
+        <v>76.8055847932864</v>
       </c>
       <c r="S25" t="n">
-        <v>29.76876385942801</v>
+        <v>29.76876385942782</v>
       </c>
       <c r="T25" t="n">
-        <v>7.298549303041817</v>
+        <v>7.298549303041773</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09317296982606589</v>
+        <v>0.09317296982606531</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34226,7 +34226,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34702,22 +34702,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34869,10 +34869,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>268.7810556627505</v>
+        <v>268.7810556627506</v>
       </c>
       <c r="K11" t="n">
-        <v>524.7975768725355</v>
+        <v>524.7975768725357</v>
       </c>
       <c r="L11" t="n">
-        <v>703.8624741715767</v>
+        <v>703.8624741715768</v>
       </c>
       <c r="M11" t="n">
-        <v>799.9569106519282</v>
+        <v>799.9569106519284</v>
       </c>
       <c r="N11" t="n">
-        <v>798.1212542946565</v>
+        <v>798.1212542946568</v>
       </c>
       <c r="O11" t="n">
-        <v>707.9991897593987</v>
+        <v>707.9991897593989</v>
       </c>
       <c r="P11" t="n">
-        <v>566.2059960896465</v>
+        <v>566.2059960896466</v>
       </c>
       <c r="Q11" t="n">
-        <v>347.1953452985556</v>
+        <v>347.1953452985557</v>
       </c>
       <c r="R11" t="n">
-        <v>57.90333862165014</v>
+        <v>57.90333862165019</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>40.36344363027885</v>
+        <v>166.4544789706877</v>
       </c>
       <c r="K12" t="n">
-        <v>147.9318215577725</v>
+        <v>412.3970585703511</v>
       </c>
       <c r="L12" t="n">
-        <v>245.7030356163604</v>
+        <v>560.5062880330501</v>
       </c>
       <c r="M12" t="n">
-        <v>306.2762455939996</v>
+        <v>306.2762455939997</v>
       </c>
       <c r="N12" t="n">
-        <v>808.2790275885974</v>
+        <v>328.936653245044</v>
       </c>
       <c r="O12" t="n">
-        <v>278.4685371533645</v>
+        <v>278.4685371533647</v>
       </c>
       <c r="P12" t="n">
-        <v>522.4299701847274</v>
+        <v>203.9672015447904</v>
       </c>
       <c r="Q12" t="n">
-        <v>203.554911448377</v>
+        <v>296.0005296621903</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.53739812956188</v>
+        <v>11.53739812956191</v>
       </c>
       <c r="K13" t="n">
-        <v>150.1078091882458</v>
+        <v>150.1078091882459</v>
       </c>
       <c r="L13" t="n">
-        <v>248.1736231308217</v>
+        <v>248.1736231308218</v>
       </c>
       <c r="M13" t="n">
         <v>272.1583528136889</v>
       </c>
       <c r="N13" t="n">
-        <v>271.1765470248335</v>
+        <v>271.1765470248336</v>
       </c>
       <c r="O13" t="n">
-        <v>234.2973560961738</v>
+        <v>234.2973560961739</v>
       </c>
       <c r="P13" t="n">
-        <v>176.7235993816358</v>
+        <v>176.7235993816359</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.07640116467022</v>
+        <v>38.07640116467026</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>311.2562719279858</v>
+        <v>142.1596567559134</v>
       </c>
       <c r="K14" t="n">
-        <v>588.4569154901756</v>
+        <v>588.4569154901776</v>
       </c>
       <c r="L14" t="n">
-        <v>782.8375128705396</v>
+        <v>782.8375128705422</v>
       </c>
       <c r="M14" t="n">
-        <v>887.8318580653863</v>
+        <v>887.8318580653892</v>
       </c>
       <c r="N14" t="n">
-        <v>887.4181102276934</v>
+        <v>887.4181102276963</v>
       </c>
       <c r="O14" t="n">
-        <v>788.102664834957</v>
+        <v>792.319678656253</v>
       </c>
       <c r="P14" t="n">
-        <v>316.3728743681694</v>
+        <v>481.2524757189345</v>
       </c>
       <c r="Q14" t="n">
-        <v>188.9235129822191</v>
+        <v>188.9235129822209</v>
       </c>
       <c r="R14" t="n">
-        <v>23.62342065557158</v>
+        <v>23.62342065557257</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>65.66139145349089</v>
+        <v>65.66139145349172</v>
       </c>
       <c r="K15" t="n">
-        <v>455.6352807980655</v>
+        <v>455.635280798067</v>
       </c>
       <c r="L15" t="n">
-        <v>303.8421613295637</v>
+        <v>303.8421613295656</v>
       </c>
       <c r="M15" t="n">
-        <v>374.1218630559076</v>
+        <v>374.1218630559097</v>
       </c>
       <c r="N15" t="n">
-        <v>398.5779423202331</v>
+        <v>398.5779423202354</v>
       </c>
       <c r="O15" t="n">
-        <v>351.3773593855038</v>
+        <v>342.1767111269883</v>
       </c>
       <c r="P15" t="n">
-        <v>255.0986277704532</v>
+        <v>474.3765637648078</v>
       </c>
       <c r="Q15" t="n">
-        <v>330.1805340002787</v>
+        <v>120.1032462644307</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>27.40851760621275</v>
+        <v>27.40851760621327</v>
       </c>
       <c r="K16" t="n">
-        <v>176.1889339036371</v>
+        <v>176.1889339036379</v>
       </c>
       <c r="L16" t="n">
-        <v>281.5484833495627</v>
+        <v>281.5484833495638</v>
       </c>
       <c r="M16" t="n">
-        <v>307.3474634136491</v>
+        <v>307.3474634136502</v>
       </c>
       <c r="N16" t="n">
-        <v>305.5289392262562</v>
+        <v>305.5289392262573</v>
       </c>
       <c r="O16" t="n">
-        <v>266.0273503899848</v>
+        <v>266.0273503899858</v>
       </c>
       <c r="P16" t="n">
-        <v>203.8740910258898</v>
+        <v>203.8740910258907</v>
       </c>
       <c r="Q16" t="n">
-        <v>56.87399425962086</v>
+        <v>56.87399425962148</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>142.1596567559122</v>
+        <v>311.256271927984</v>
       </c>
       <c r="K17" t="n">
-        <v>264.311502919011</v>
+        <v>588.4569154901728</v>
       </c>
       <c r="L17" t="n">
-        <v>782.83751287054</v>
+        <v>782.8375128705363</v>
       </c>
       <c r="M17" t="n">
-        <v>887.8318580653867</v>
+        <v>887.8318580653826</v>
       </c>
       <c r="N17" t="n">
-        <v>887.4181102276938</v>
+        <v>605.1696858735372</v>
       </c>
       <c r="O17" t="n">
-        <v>792.3196786562506</v>
+        <v>792.3196786562467</v>
       </c>
       <c r="P17" t="n">
-        <v>638.1715825396523</v>
+        <v>316.3728743681664</v>
       </c>
       <c r="Q17" t="n">
-        <v>290.4333988596968</v>
+        <v>401.2385036421215</v>
       </c>
       <c r="R17" t="n">
-        <v>89.33984052855413</v>
+        <v>89.33984052855268</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>65.66139145349101</v>
+        <v>191.7524267938986</v>
       </c>
       <c r="K18" t="n">
-        <v>191.1700437854871</v>
+        <v>455.6352807980637</v>
       </c>
       <c r="L18" t="n">
-        <v>674.6825066330231</v>
+        <v>303.8421613295612</v>
       </c>
       <c r="M18" t="n">
-        <v>374.1218630559078</v>
+        <v>374.1218630559046</v>
       </c>
       <c r="N18" t="n">
-        <v>398.5779423202334</v>
+        <v>398.5779423202301</v>
       </c>
       <c r="O18" t="n">
-        <v>342.1767111269864</v>
+        <v>342.1767111269835</v>
       </c>
       <c r="P18" t="n">
-        <v>255.0986277704534</v>
+        <v>348.2855284244271</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.0060739679139</v>
+        <v>120.1032462644281</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>27.40851760621281</v>
+        <v>27.40851760621207</v>
       </c>
       <c r="K19" t="n">
-        <v>176.1889339036372</v>
+        <v>176.188933903636</v>
       </c>
       <c r="L19" t="n">
-        <v>281.5484833495628</v>
+        <v>281.5484833495613</v>
       </c>
       <c r="M19" t="n">
-        <v>307.3474634136493</v>
+        <v>307.3474634136476</v>
       </c>
       <c r="N19" t="n">
-        <v>305.5289392262563</v>
+        <v>305.5289392262547</v>
       </c>
       <c r="O19" t="n">
-        <v>266.0273503899849</v>
+        <v>266.0273503899834</v>
       </c>
       <c r="P19" t="n">
-        <v>203.8740910258899</v>
+        <v>203.8740910258886</v>
       </c>
       <c r="Q19" t="n">
-        <v>56.87399425962094</v>
+        <v>56.87399425962006</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>311.2562719279859</v>
+        <v>311.256271927984</v>
       </c>
       <c r="K20" t="n">
-        <v>433.9233164573425</v>
+        <v>588.4569154901728</v>
       </c>
       <c r="L20" t="n">
-        <v>782.83751287054</v>
+        <v>782.8375128705363</v>
       </c>
       <c r="M20" t="n">
-        <v>438.3183245725542</v>
+        <v>438.3183245725501</v>
       </c>
       <c r="N20" t="n">
-        <v>887.4181102276938</v>
+        <v>732.8845111948873</v>
       </c>
       <c r="O20" t="n">
-        <v>792.3196786562506</v>
+        <v>792.3196786562467</v>
       </c>
       <c r="P20" t="n">
-        <v>638.1715825396523</v>
+        <v>638.1715825396491</v>
       </c>
       <c r="Q20" t="n">
-        <v>401.238503642124</v>
+        <v>401.2385036421215</v>
       </c>
       <c r="R20" t="n">
-        <v>89.33984052855413</v>
+        <v>89.33984052855268</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>65.66139145349101</v>
+        <v>191.7524267938986</v>
       </c>
       <c r="K21" t="n">
-        <v>191.1700437854871</v>
+        <v>230.3594128121025</v>
       </c>
       <c r="L21" t="n">
-        <v>303.8421613295639</v>
+        <v>303.8421613295612</v>
       </c>
       <c r="M21" t="n">
-        <v>374.1218630559078</v>
+        <v>374.1218630559046</v>
       </c>
       <c r="N21" t="n">
-        <v>877.9203166637869</v>
+        <v>398.5779423202301</v>
       </c>
       <c r="O21" t="n">
-        <v>342.1767111269864</v>
+        <v>342.1767111269835</v>
       </c>
       <c r="P21" t="n">
-        <v>259.4994264338435</v>
+        <v>573.5613964103882</v>
       </c>
       <c r="Q21" t="n">
-        <v>120.1032462644297</v>
+        <v>120.1032462644281</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>27.40851760621281</v>
+        <v>27.40851760621207</v>
       </c>
       <c r="K22" t="n">
-        <v>176.1889339036372</v>
+        <v>176.188933903636</v>
       </c>
       <c r="L22" t="n">
-        <v>281.5484833495628</v>
+        <v>281.5484833495613</v>
       </c>
       <c r="M22" t="n">
-        <v>307.3474634136493</v>
+        <v>307.3474634136476</v>
       </c>
       <c r="N22" t="n">
-        <v>305.5289392262563</v>
+        <v>305.5289392262547</v>
       </c>
       <c r="O22" t="n">
-        <v>266.0273503899849</v>
+        <v>266.0273503899834</v>
       </c>
       <c r="P22" t="n">
-        <v>203.8740910258899</v>
+        <v>203.8740910258886</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.87399425962094</v>
+        <v>56.87399425962006</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>142.1596567559122</v>
+        <v>311.256271927984</v>
       </c>
       <c r="K23" t="n">
-        <v>588.4569154901758</v>
+        <v>588.4569154901728</v>
       </c>
       <c r="L23" t="n">
-        <v>782.83751287054</v>
+        <v>628.3039138377339</v>
       </c>
       <c r="M23" t="n">
-        <v>452.8813407117946</v>
+        <v>438.3183245725501</v>
       </c>
       <c r="N23" t="n">
-        <v>887.4181102276938</v>
+        <v>887.4181102276896</v>
       </c>
       <c r="O23" t="n">
-        <v>792.3196786562506</v>
+        <v>792.3196786562467</v>
       </c>
       <c r="P23" t="n">
-        <v>638.1715825396523</v>
+        <v>638.1715825396491</v>
       </c>
       <c r="Q23" t="n">
-        <v>401.238503642124</v>
+        <v>401.2385036421215</v>
       </c>
       <c r="R23" t="n">
-        <v>89.33984052855413</v>
+        <v>89.33984052855268</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>65.66139145349101</v>
+        <v>65.66139145348981</v>
       </c>
       <c r="K24" t="n">
-        <v>191.1700437854871</v>
+        <v>455.6352807980637</v>
       </c>
       <c r="L24" t="n">
-        <v>303.8421613295639</v>
+        <v>313.0428095880968</v>
       </c>
       <c r="M24" t="n">
-        <v>374.1218630559078</v>
+        <v>374.1218630559046</v>
       </c>
       <c r="N24" t="n">
-        <v>398.5779423202334</v>
+        <v>398.5779423202301</v>
       </c>
       <c r="O24" t="n">
-        <v>342.1767111269864</v>
+        <v>342.1767111269835</v>
       </c>
       <c r="P24" t="n">
-        <v>573.5613964103907</v>
+        <v>255.0986277704511</v>
       </c>
       <c r="Q24" t="n">
-        <v>259.0377894816816</v>
+        <v>330.1805340002772</v>
       </c>
       <c r="R24" t="n">
-        <v>26.34586114975475</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>27.40851760621281</v>
+        <v>27.40851760621207</v>
       </c>
       <c r="K25" t="n">
-        <v>176.1889339036372</v>
+        <v>176.188933903636</v>
       </c>
       <c r="L25" t="n">
-        <v>281.5484833495628</v>
+        <v>281.5484833495613</v>
       </c>
       <c r="M25" t="n">
-        <v>307.3474634136493</v>
+        <v>307.3474634136476</v>
       </c>
       <c r="N25" t="n">
-        <v>305.5289392262563</v>
+        <v>305.5289392262547</v>
       </c>
       <c r="O25" t="n">
-        <v>266.0273503899849</v>
+        <v>266.0273503899834</v>
       </c>
       <c r="P25" t="n">
-        <v>203.8740910258899</v>
+        <v>203.8740910258886</v>
       </c>
       <c r="Q25" t="n">
-        <v>56.87399425962094</v>
+        <v>56.87399425962006</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115047</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>455.8670844338408</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36832,22 +36832,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>694.2441980687703</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>754.5075703690641</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37306,28 +37306,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>687.3391267687674</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359038</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>518.6059955963559</v>
+        <v>753.4190306414129</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37780,22 +37780,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>866.0091179129988</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>677.5556672467163</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
@@ -37874,7 +37874,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -38017,25 +38017,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L44" t="n">
-        <v>654.3055518223274</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
@@ -38175,16 +38175,16 @@
         <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
